--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_14_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_14_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-724030.9087200182</v>
+        <v>-726814.8971101217</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12433944.62717039</v>
+        <v>12433840.69422232</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13587850.43371964</v>
+        <v>13590397.66365032</v>
       </c>
     </row>
     <row r="11">
@@ -662,22 +662,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>232.2791855053265</v>
+      </c>
+      <c r="G2" t="n">
         <v>263.7138800015061</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>116.704103435943</v>
-      </c>
-      <c r="G2" t="n">
-        <v>12.83417464571001</v>
-      </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,10 +713,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -741,10 +741,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>8.163791640940769</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.92180400150561</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>18.1525249552777</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -801,10 +801,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>88.89608319330914</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>3.464642050164566</v>
+        <v>122.1505735248086</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>53.20458914190825</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>263.7138800015061</v>
@@ -896,22 +896,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>178.1779414447466</v>
+        <v>39.08558791829126</v>
       </c>
       <c r="H5" t="n">
-        <v>308.6385254346067</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>140.2918721303347</v>
       </c>
       <c r="T5" t="n">
-        <v>209.9152513781892</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1047739004406</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -978,10 +978,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -990,10 +990,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>96.67637889409515</v>
+        <v>96.65022876708302</v>
       </c>
       <c r="I6" t="n">
-        <v>33.92948347001168</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1332524146626497</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>7.731316528588947</v>
       </c>
       <c r="T6" t="n">
-        <v>193.6711859838013</v>
+        <v>193.6602722841082</v>
       </c>
       <c r="U6" t="n">
-        <v>157.9794472029594</v>
+        <v>225.8352157630633</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1060,19 +1060,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6380839848538</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>114.83348631644</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>116.4622957603517</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>151.373194865467</v>
+        <v>222.1650364683332</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2453588813806</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>115.5375883946968</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,22 +1136,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>150.5902543095247</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>54.29593834404675</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>133.2728407564362</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>142.9386973502262</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1370,13 +1370,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>48.20942378949663</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,7 +1385,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>244.8448317866278</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.3905097014215</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>36.02766158664551</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>13.74238375877684</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>41.02686156550283</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,13 +2002,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>130.1208074460232</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462237</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>97.22826981530292</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>36.43062059490379</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>38.05096575280654</v>
       </c>
     </row>
     <row r="26">
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>81.27859867330056</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428129</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2953,13 +2953,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,19 +2998,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>174.7683347992593</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3187,7 +3187,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>23.62554568141267</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>224.1675592379421</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3269,10 +3269,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>164.2607468869782</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>151.6755878036687</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>115.727557108366</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>130.86272935161</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308916</v>
+        <v>129.8498147279721</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>149.9529049973097</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652585</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.090599218082</v>
+        <v>50.80401341516254</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>165.4550527066854</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>201.8342170323291</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>270.613241094285</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>236.5664100288689</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>270.9517650416319</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>210.138422094078</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>203.0134200571356</v>
       </c>
     </row>
     <row r="38">
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652668</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3989,7 +3989,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>534.7928453799753</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="C2" t="n">
-        <v>534.7928453799753</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="D2" t="n">
-        <v>268.4151888127974</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="E2" t="n">
-        <v>268.4151888127974</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="F2" t="n">
-        <v>150.5322560492186</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I2" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917624</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515905</v>
+        <v>294.5174947515912</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030611</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991323</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358418</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4361,19 +4361,19 @@
         <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>801.1705019471533</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V2" t="n">
-        <v>801.1705019471533</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="W2" t="n">
-        <v>801.1705019471533</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="X2" t="n">
-        <v>801.1705019471533</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="Y2" t="n">
-        <v>801.1705019471533</v>
+        <v>788.4778634388466</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>503.7220043479542</v>
+        <v>248.1618524513954</v>
       </c>
       <c r="C3" t="n">
-        <v>329.2689750668272</v>
+        <v>73.70882317026835</v>
       </c>
       <c r="D3" t="n">
-        <v>180.334565405576</v>
+        <v>73.70882317026835</v>
       </c>
       <c r="E3" t="n">
-        <v>21.09711040012049</v>
+        <v>65.46256898749989</v>
       </c>
       <c r="F3" t="n">
-        <v>21.09711040012049</v>
+        <v>65.46256898749989</v>
       </c>
       <c r="G3" t="n">
-        <v>21.09711040012049</v>
+        <v>65.46256898749989</v>
       </c>
       <c r="H3" t="n">
-        <v>21.09711040012049</v>
+        <v>65.46256898749989</v>
       </c>
       <c r="I3" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>117.4455628004801</v>
+        <v>117.4455628004806</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699343</v>
+        <v>192.1295835699347</v>
       </c>
       <c r="L3" t="n">
-        <v>338.874007230231</v>
+        <v>338.8740072302313</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267547</v>
+        <v>529.4746963267551</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293598</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560896</v>
+        <v>909.4672107560897</v>
       </c>
       <c r="P3" t="n">
         <v>1026.524810789493</v>
@@ -4434,25 +4434,25 @@
         <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212815</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="T3" t="n">
-        <v>1036.519636212815</v>
+        <v>691.074259448092</v>
       </c>
       <c r="U3" t="n">
-        <v>1036.519636212815</v>
+        <v>691.074259448092</v>
       </c>
       <c r="V3" t="n">
-        <v>801.367527981072</v>
+        <v>455.9221512163493</v>
       </c>
       <c r="W3" t="n">
-        <v>801.367527981072</v>
+        <v>455.9221512163493</v>
       </c>
       <c r="X3" t="n">
-        <v>593.5160277755392</v>
+        <v>455.9221512163493</v>
       </c>
       <c r="Y3" t="n">
-        <v>503.7220043479542</v>
+        <v>248.1618524513954</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>659.6853352735295</v>
+        <v>298.4029011684693</v>
       </c>
       <c r="C4" t="n">
-        <v>490.7491523456226</v>
+        <v>298.4029011684693</v>
       </c>
       <c r="D4" t="n">
-        <v>340.6325129332869</v>
+        <v>298.4029011684693</v>
       </c>
       <c r="E4" t="n">
-        <v>340.6325129332869</v>
+        <v>298.4029011684693</v>
       </c>
       <c r="F4" t="n">
-        <v>193.7425654353765</v>
+        <v>298.4029011684693</v>
       </c>
       <c r="G4" t="n">
-        <v>193.7425654353765</v>
+        <v>298.4029011684693</v>
       </c>
       <c r="H4" t="n">
-        <v>39.8211923688545</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
         <v>21.09711040012049</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>926.0629918407075</v>
+        <v>1001.113510771774</v>
       </c>
       <c r="U4" t="n">
-        <v>926.0629918407075</v>
+        <v>1001.113510771774</v>
       </c>
       <c r="V4" t="n">
-        <v>926.0629918407075</v>
+        <v>746.429022565887</v>
       </c>
       <c r="W4" t="n">
-        <v>659.6853352735295</v>
+        <v>480.051365998709</v>
       </c>
       <c r="X4" t="n">
-        <v>659.6853352735295</v>
+        <v>480.051365998709</v>
       </c>
       <c r="Y4" t="n">
-        <v>659.6853352735295</v>
+        <v>480.051365998709</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>532.3157881574812</v>
+        <v>1193.195829664925</v>
       </c>
       <c r="C5" t="n">
-        <v>532.3157881574812</v>
+        <v>824.2333127245131</v>
       </c>
       <c r="D5" t="n">
-        <v>532.3157881574812</v>
+        <v>465.9676141177626</v>
       </c>
       <c r="E5" t="n">
-        <v>532.3157881574812</v>
+        <v>80.17936151951835</v>
       </c>
       <c r="F5" t="n">
-        <v>525.3702874082777</v>
+        <v>73.23386077031488</v>
       </c>
       <c r="G5" t="n">
-        <v>345.3925687772206</v>
+        <v>33.75346893365703</v>
       </c>
       <c r="H5" t="n">
-        <v>33.63648247963807</v>
+        <v>33.75346893365703</v>
       </c>
       <c r="I5" t="n">
-        <v>33.63648247963807</v>
+        <v>33.75346893365703</v>
       </c>
       <c r="J5" t="n">
-        <v>107.3993070910265</v>
+        <v>107.9415078333836</v>
       </c>
       <c r="K5" t="n">
-        <v>268.6891783897538</v>
+        <v>269.8686651248964</v>
       </c>
       <c r="L5" t="n">
-        <v>505.6852878197888</v>
+        <v>507.6553841816637</v>
       </c>
       <c r="M5" t="n">
-        <v>801.0585612663394</v>
+        <v>803.9083631721214</v>
       </c>
       <c r="N5" t="n">
-        <v>1105.825091459339</v>
+        <v>1109.568833464431</v>
       </c>
       <c r="O5" t="n">
-        <v>1380.27222251181</v>
+        <v>1384.860086803525</v>
       </c>
       <c r="P5" t="n">
-        <v>1580.005498447354</v>
+        <v>1585.313801581242</v>
       </c>
       <c r="Q5" t="n">
-        <v>1681.824123981903</v>
+        <v>1687.673446682852</v>
       </c>
       <c r="R5" t="n">
-        <v>1681.824123981903</v>
+        <v>1687.673446682852</v>
       </c>
       <c r="S5" t="n">
-        <v>1681.824123981903</v>
+        <v>1545.964484935039</v>
       </c>
       <c r="T5" t="n">
-        <v>1469.788516529187</v>
+        <v>1545.964484935039</v>
       </c>
       <c r="U5" t="n">
-        <v>1216.147330771166</v>
+        <v>1545.964484935039</v>
       </c>
       <c r="V5" t="n">
-        <v>885.0844434275954</v>
+        <v>1545.964484935039</v>
       </c>
       <c r="W5" t="n">
-        <v>532.3157881574812</v>
+        <v>1193.195829664925</v>
       </c>
       <c r="X5" t="n">
-        <v>532.3157881574812</v>
+        <v>1193.195829664925</v>
       </c>
       <c r="Y5" t="n">
-        <v>532.3157881574812</v>
+        <v>1193.195829664925</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>461.0305636131022</v>
+        <v>437.1519756163519</v>
       </c>
       <c r="C6" t="n">
-        <v>461.0305636131022</v>
+        <v>437.1519756163519</v>
       </c>
       <c r="D6" t="n">
-        <v>312.0961539518509</v>
+        <v>437.1519756163519</v>
       </c>
       <c r="E6" t="n">
-        <v>312.0961539518509</v>
+        <v>277.9145206108964</v>
       </c>
       <c r="F6" t="n">
-        <v>165.5615959787359</v>
+        <v>131.3799626377813</v>
       </c>
       <c r="G6" t="n">
-        <v>165.5615959787359</v>
+        <v>131.3799626377813</v>
       </c>
       <c r="H6" t="n">
-        <v>67.90868800490239</v>
+        <v>33.75346893365703</v>
       </c>
       <c r="I6" t="n">
-        <v>33.63648247963807</v>
+        <v>33.75346893365703</v>
       </c>
       <c r="J6" t="n">
-        <v>66.38199119245462</v>
+        <v>59.12150970639475</v>
       </c>
       <c r="K6" t="n">
-        <v>449.2825701531427</v>
+        <v>442.4549413164668</v>
       </c>
       <c r="L6" t="n">
-        <v>658.4121058685337</v>
+        <v>652.1665008362892</v>
       </c>
       <c r="M6" t="n">
-        <v>921.8132782177147</v>
+        <v>916.2468675129523</v>
       </c>
       <c r="N6" t="n">
-        <v>1206.594540740076</v>
+        <v>1201.725300615638</v>
       </c>
       <c r="O6" t="n">
-        <v>1444.893964213714</v>
+        <v>1440.662498966945</v>
       </c>
       <c r="P6" t="n">
-        <v>1616.817194156313</v>
+        <v>1613.0975994761</v>
       </c>
       <c r="Q6" t="n">
-        <v>1681.824123981903</v>
+        <v>1687.638936334492</v>
       </c>
       <c r="R6" t="n">
-        <v>1681.689525583254</v>
+        <v>1687.673446682852</v>
       </c>
       <c r="S6" t="n">
-        <v>1681.689525583254</v>
+        <v>1679.864036047913</v>
       </c>
       <c r="T6" t="n">
-        <v>1486.062064993556</v>
+        <v>1484.247599397299</v>
       </c>
       <c r="U6" t="n">
-        <v>1326.486865798647</v>
+        <v>1256.131219838649</v>
       </c>
       <c r="V6" t="n">
-        <v>1091.334757566905</v>
+        <v>1020.979111606907</v>
       </c>
       <c r="W6" t="n">
-        <v>837.097400838703</v>
+        <v>1020.979111606907</v>
       </c>
       <c r="X6" t="n">
-        <v>629.2459006331702</v>
+        <v>813.1276114013738</v>
       </c>
       <c r="Y6" t="n">
-        <v>629.2459006331702</v>
+        <v>605.3673126364199</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>594.5495834939338</v>
+        <v>352.1914053003906</v>
       </c>
       <c r="C7" t="n">
-        <v>594.5495834939338</v>
+        <v>352.1914053003906</v>
       </c>
       <c r="D7" t="n">
-        <v>444.4329440815981</v>
+        <v>202.0747658880549</v>
       </c>
       <c r="E7" t="n">
-        <v>296.5198504992049</v>
+        <v>202.0747658880549</v>
       </c>
       <c r="F7" t="n">
-        <v>149.6299030012946</v>
+        <v>202.0747658880549</v>
       </c>
       <c r="G7" t="n">
-        <v>149.6299030012946</v>
+        <v>33.75346893365703</v>
       </c>
       <c r="H7" t="n">
-        <v>149.6299030012946</v>
+        <v>33.75346893365703</v>
       </c>
       <c r="I7" t="n">
-        <v>33.63648247963807</v>
+        <v>33.75346893365703</v>
       </c>
       <c r="J7" t="n">
-        <v>35.745216178059</v>
+        <v>36.02108650288043</v>
       </c>
       <c r="K7" t="n">
-        <v>169.0473501355483</v>
+        <v>169.5843154672947</v>
       </c>
       <c r="L7" t="n">
-        <v>395.1546218856764</v>
+        <v>396.0256989344221</v>
       </c>
       <c r="M7" t="n">
-        <v>643.9421604618697</v>
+        <v>645.1655114702717</v>
       </c>
       <c r="N7" t="n">
-        <v>892.2487038600647</v>
+        <v>893.8159525407333</v>
       </c>
       <c r="O7" t="n">
-        <v>1105.583690752459</v>
+        <v>1107.468584594917</v>
       </c>
       <c r="P7" t="n">
-        <v>1264.607944567854</v>
+        <v>1266.76463872112</v>
       </c>
       <c r="Q7" t="n">
-        <v>1291.273014878455</v>
+        <v>1293.617889478418</v>
       </c>
       <c r="R7" t="n">
-        <v>1291.273014878455</v>
+        <v>1175.979206892204</v>
       </c>
       <c r="S7" t="n">
-        <v>1291.273014878455</v>
+        <v>1175.979206892204</v>
       </c>
       <c r="T7" t="n">
-        <v>1138.370797842629</v>
+        <v>951.5700791464127</v>
       </c>
       <c r="U7" t="n">
-        <v>849.2340716998207</v>
+        <v>951.5700791464127</v>
       </c>
       <c r="V7" t="n">
-        <v>594.5495834939338</v>
+        <v>696.8855909405258</v>
       </c>
       <c r="W7" t="n">
-        <v>594.5495834939338</v>
+        <v>580.1809561984079</v>
       </c>
       <c r="X7" t="n">
-        <v>594.5495834939338</v>
+        <v>352.1914053003906</v>
       </c>
       <c r="Y7" t="n">
-        <v>594.5495834939338</v>
+        <v>352.1914053003906</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1522.010132800342</v>
+        <v>1071.224806595489</v>
       </c>
       <c r="C8" t="n">
-        <v>1522.010132800342</v>
+        <v>1071.224806595489</v>
       </c>
       <c r="D8" t="n">
-        <v>1163.744434193592</v>
+        <v>1071.224806595489</v>
       </c>
       <c r="E8" t="n">
-        <v>777.9561815953474</v>
+        <v>685.4365539972448</v>
       </c>
       <c r="F8" t="n">
-        <v>366.9702768057398</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704328</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2507.494946234451</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2298.749304840276</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U8" t="n">
-        <v>2298.749304840276</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V8" t="n">
-        <v>2298.749304840276</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="W8" t="n">
-        <v>2298.749304840276</v>
+        <v>1831.290404920691</v>
       </c>
       <c r="X8" t="n">
-        <v>2298.749304840276</v>
+        <v>1457.824646659611</v>
       </c>
       <c r="Y8" t="n">
-        <v>1908.609972864464</v>
+        <v>1457.824646659611</v>
       </c>
     </row>
     <row r="9">
@@ -4872,37 +4872,37 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>143.6627691908469</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735142</v>
+        <v>590.2049751143496</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049859</v>
+        <v>884.9085321458213</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164206</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N9" t="n">
-        <v>1605.390115761151</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O9" t="n">
-        <v>1937.460550937313</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,49 +4936,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>471.9783454282415</v>
+        <v>834.9380653188541</v>
       </c>
       <c r="C10" t="n">
-        <v>471.9783454282415</v>
+        <v>666.0018823909472</v>
       </c>
       <c r="D10" t="n">
-        <v>471.9783454282415</v>
+        <v>515.8852429786115</v>
       </c>
       <c r="E10" t="n">
-        <v>471.9783454282415</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="F10" t="n">
-        <v>325.0883979303312</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386097</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386097</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4987,25 +4987,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1305.198341167251</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1016.080003671089</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>761.3955154652022</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W10" t="n">
-        <v>471.9783454282415</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="X10" t="n">
-        <v>471.9783454282415</v>
+        <v>1237.379109292624</v>
       </c>
       <c r="Y10" t="n">
-        <v>471.9783454282415</v>
+        <v>1016.586530149094</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1619.798686923957</v>
+        <v>1624.638712032429</v>
       </c>
       <c r="C11" t="n">
-        <v>1250.836169983545</v>
+        <v>1624.638712032429</v>
       </c>
       <c r="D11" t="n">
-        <v>892.5704713767946</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E11" t="n">
-        <v>892.5704713767946</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F11" t="n">
-        <v>481.584566587187</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218345</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810555</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T11" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U11" t="n">
-        <v>2961.784676410104</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V11" t="n">
-        <v>2630.721789066533</v>
+        <v>2741.012457539435</v>
       </c>
       <c r="W11" t="n">
-        <v>2383.403777160848</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X11" t="n">
-        <v>2009.938018899768</v>
+        <v>2014.778044008241</v>
       </c>
       <c r="Y11" t="n">
-        <v>1619.798686923957</v>
+        <v>1624.638712032429</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5133,37 +5133,37 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>531.7821255545683</v>
+        <v>249.7936412903419</v>
       </c>
       <c r="C13" t="n">
-        <v>362.8459426266614</v>
+        <v>249.793641290342</v>
       </c>
       <c r="D13" t="n">
-        <v>212.7293032143257</v>
+        <v>249.793641290342</v>
       </c>
       <c r="E13" t="n">
-        <v>212.7293032143257</v>
+        <v>249.793641290342</v>
       </c>
       <c r="F13" t="n">
-        <v>212.7293032143257</v>
+        <v>102.9036937924317</v>
       </c>
       <c r="G13" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764913</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760402</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P13" t="n">
         <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U13" t="n">
-        <v>1638.191681214137</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V13" t="n">
-        <v>1383.50719300825</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W13" t="n">
-        <v>1094.090022971289</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="X13" t="n">
-        <v>866.1004720732717</v>
+        <v>652.2346852641117</v>
       </c>
       <c r="Y13" t="n">
-        <v>645.3078929297416</v>
+        <v>431.4421061205816</v>
       </c>
     </row>
     <row r="14">
@@ -5276,7 +5276,7 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075809</v>
@@ -5285,19 +5285,19 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,22 +5355,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>733.4550657171301</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>564.5188827892232</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>550.637687073287</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5437,7 +5437,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L16" t="n">
         <v>826.1405381797745</v>
@@ -5449,37 +5449,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588917</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X16" t="n">
-        <v>1135.8961096909</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y16" t="n">
-        <v>915.1035305473698</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="17">
@@ -5495,7 +5495,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5510,19 +5510,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
@@ -5595,25 +5595,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>184.7035232280583</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>931.4710609784061</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400712</v>
+        <v>762.5348780504992</v>
       </c>
       <c r="D19" t="n">
-        <v>382.4184417036842</v>
+        <v>612.4182386381634</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036842</v>
+        <v>464.5051450557703</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578599</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578599</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5674,7 +5674,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L19" t="n">
         <v>826.1405381797745</v>
@@ -5686,37 +5686,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1113.119525808646</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="20">
@@ -5747,28 +5747,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,22 +5826,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>763.7541388327638</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>594.8179559048569</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>444.7013164925212</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310022</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>945.4026036630036</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,7 +5975,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,25 +5984,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356196</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232839</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6151,7 +6151,7 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6163,34 +6163,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>2090.84215317686</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1836.157664970973</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1546.740494934012</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1318.750944035995</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6215,19 +6215,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,10 +6236,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6251,10 +6251,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>95.58405025273903</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>762.5477693179085</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C28" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D28" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="E28" t="n">
-        <v>382.4184417036842</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270439</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="29">
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6540,28 +6540,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6622,10 +6622,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2203.383708318259</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
         <v>1948.813509611463</v>
@@ -6692,16 +6692,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6719,31 +6719,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,22 +6771,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
         <v>2001.151557821488</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C34" t="n">
-        <v>513.8536007400712</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D34" t="n">
-        <v>513.8536007400712</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E34" t="n">
-        <v>513.8536007400712</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>366.9636532421608</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>199.7675539570408</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6880,7 +6880,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S34" t="n">
         <v>2197.062545487567</v>
@@ -6889,19 +6889,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1207.269487630696</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>979.2799367326791</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
     <row r="35">
@@ -6917,7 +6917,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319328</v>
+        <v>778.7344347539583</v>
       </c>
       <c r="C37" t="n">
-        <v>782.551295565682</v>
+        <v>625.5267703058081</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>508.6302479741253</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942657</v>
+        <v>376.4456728714889</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580116</v>
+        <v>245.2842438533352</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>189.4682024403053</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>466.5729859278534</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>872.387101065803</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1309.812324758847</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>1742.637717380865</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2127.58251905186</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2435.673495587428</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2570.287251276337</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2518.970066008495</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2351.843750143157</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2147.970803645854</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1874.624095469809</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1635.668125743679</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1361.979474186475</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1149.718441768214</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>944.6543811044413</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C40" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F40" t="n">
         <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345485</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384029</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7366,7 +7366,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,34 +7397,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7433,25 +7433,25 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,22 +7567,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P43" t="n">
         <v>2496.057455973196</v>
@@ -7591,7 +7591,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547835</v>
@@ -7600,7 +7600,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7609,7 +7609,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7622,43 +7622,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7667,31 +7667,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954148</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761156</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.37288961069065</v>
+        <v>99.37288961069115</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>26.44658846000576</v>
+        <v>26.12870255621232</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>7.707800663841915</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>9.285085974474711</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>30.36925650589448</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>265.0304328515139</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -22550,7 +22550,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>62.63359754465267</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -23258,13 +23258,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>306.4736178311863</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>104.3961369307852</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>67.44147048051579</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>129.9981466723823</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>134.8730892594355</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>139.9994244361418</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23890,13 +23890,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>18.49466557218918</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>128.4813855737342</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>110.0033420516654</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,10 +24412,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>180.5336875992882</v>
       </c>
     </row>
     <row r="26">
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>85.96822242532727</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194259</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24841,13 +24841,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,19 +24886,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>6.257951202385252</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>116.6691671648112</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>62.35543909864887</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>17.31668261488724</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>124.7234795512647</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>65.69460302360639</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1195807.191492815</v>
+        <v>1203036.361321419</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1204651.439314683</v>
+        <v>1204665.989927413</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>997430.8025258429</v>
+        <v>997430.8025258427</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1178901.785060681</v>
+        <v>1178901.785060682</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1178901.785060681</v>
+        <v>1178901.785060682</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1178901.785060681</v>
+        <v>1178901.785060682</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1178901.785060682</v>
+        <v>1178901.785060681</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1178901.785060681</v>
+        <v>1178901.785060682</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1178901.785060682</v>
+        <v>1178901.785060681</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1199049.781813384</v>
+        <v>1191820.61198478</v>
       </c>
     </row>
     <row r="14">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>244816.8406499188</v>
+        <v>246312.5309592851</v>
       </c>
       <c r="C2" t="n">
         <v>246312.5309592849</v>
       </c>
       <c r="D2" t="n">
-        <v>246312.530959285</v>
+        <v>246312.5309592851</v>
       </c>
       <c r="E2" t="n">
-        <v>204598.2593825524</v>
+        <v>204598.2593825525</v>
       </c>
       <c r="F2" t="n">
-        <v>242143.9799070018</v>
+        <v>242143.9799070019</v>
       </c>
       <c r="G2" t="n">
         <v>242143.9799070018</v>
@@ -26338,22 +26338,22 @@
         <v>242143.9799070018</v>
       </c>
       <c r="K2" t="n">
-        <v>242143.9799070018</v>
+        <v>242143.9799070019</v>
       </c>
       <c r="L2" t="n">
-        <v>242143.9799070018</v>
+        <v>242143.9799070019</v>
       </c>
       <c r="M2" t="n">
-        <v>246312.5309592848</v>
+        <v>244816.8406499188</v>
       </c>
       <c r="N2" t="n">
+        <v>246312.530959285</v>
+      </c>
+      <c r="O2" t="n">
         <v>246312.5309592849</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>246312.530959285</v>
-      </c>
-      <c r="P2" t="n">
-        <v>246312.5309592847</v>
       </c>
     </row>
     <row r="3">
@@ -26363,43 +26363,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911928</v>
       </c>
       <c r="C3" t="n">
-        <v>173504.6373582863</v>
+        <v>175123.354160984</v>
       </c>
       <c r="D3" t="n">
-        <v>226885.192915319</v>
+        <v>225352.8812463231</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171907</v>
+        <v>182072.9798171905</v>
       </c>
       <c r="F3" t="n">
-        <v>317694.1318125469</v>
+        <v>317694.1318125476</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>68999.15441911401</v>
       </c>
       <c r="K3" t="n">
-        <v>40340.41391701599</v>
+        <v>40716.77103824046</v>
       </c>
       <c r="L3" t="n">
-        <v>55712.61840035494</v>
+        <v>55342.51566742845</v>
       </c>
       <c r="M3" t="n">
-        <v>66979.98378704675</v>
+        <v>60009.2524293822</v>
       </c>
       <c r="N3" t="n">
-        <v>83595.25861206514</v>
+        <v>90565.9899697298</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>245697.6307404378</v>
+        <v>248543.2666865467</v>
       </c>
       <c r="C4" t="n">
-        <v>201514.3330115798</v>
+        <v>201075.9448333626</v>
       </c>
       <c r="D4" t="n">
         <v>136726.2736921025</v>
@@ -26433,31 +26433,31 @@
         <v>9337.200356756592</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.200356756612</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756603</v>
       </c>
       <c r="J4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="K4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="L4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756653</v>
       </c>
       <c r="M4" t="n">
-        <v>17328.05961985007</v>
+        <v>14460.91211141971</v>
       </c>
       <c r="N4" t="n">
-        <v>17328.05961985007</v>
+        <v>17328.05961985009</v>
       </c>
       <c r="O4" t="n">
-        <v>17328.05961985003</v>
+        <v>17328.05961985009</v>
       </c>
       <c r="P4" t="n">
-        <v>17328.05961985007</v>
+        <v>17328.05961985012</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26470,13 @@
         <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>75519.15965147359</v>
+        <v>75635.51155157779</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139333</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26500,7 +26500,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>103164.1158539154</v>
+        <v>102431.587835781</v>
       </c>
       <c r="N5" t="n">
         <v>103164.1158539154</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-744016.5738859783</v>
+        <v>-745366.5195227207</v>
       </c>
       <c r="C6" t="n">
-        <v>-204225.5990620548</v>
+        <v>-205522.2795866395</v>
       </c>
       <c r="D6" t="n">
-        <v>-210236.7080879812</v>
+        <v>-208704.3964189852</v>
       </c>
       <c r="E6" t="n">
-        <v>-60941.52013311076</v>
+        <v>-61289.13906291658</v>
       </c>
       <c r="F6" t="n">
-        <v>-186009.8820862087</v>
+        <v>-186044.6200116451</v>
       </c>
       <c r="G6" t="n">
-        <v>131684.2497263381</v>
+        <v>131649.5118009024</v>
       </c>
       <c r="H6" t="n">
-        <v>131684.2497263379</v>
+        <v>131649.5118009025</v>
       </c>
       <c r="I6" t="n">
-        <v>131684.2497263382</v>
+        <v>131649.5118009023</v>
       </c>
       <c r="J6" t="n">
-        <v>62685.09530722401</v>
+        <v>62650.35738178839</v>
       </c>
       <c r="K6" t="n">
-        <v>91343.83580932206</v>
+        <v>90932.740762662</v>
       </c>
       <c r="L6" t="n">
-        <v>75971.63132598314</v>
+        <v>76306.99613347395</v>
       </c>
       <c r="M6" t="n">
-        <v>58840.37169847259</v>
+        <v>67902.62418742443</v>
       </c>
       <c r="N6" t="n">
-        <v>42225.09687345425</v>
+        <v>35254.36551578969</v>
       </c>
       <c r="O6" t="n">
-        <v>125820.3554855196</v>
+        <v>125820.3554855194</v>
       </c>
       <c r="P6" t="n">
-        <v>125820.3554855193</v>
+        <v>125820.3554855195</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203969</v>
+        <v>15.57123329495914</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694781</v>
       </c>
       <c r="C3" t="n">
-        <v>748.9831636214981</v>
+        <v>750.2419799081853</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26790,13 +26790,13 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>420.4560309954758</v>
+        <v>421.9183616707129</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203969</v>
+        <v>15.57123329495914</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>8.713414197080612</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,28 +26957,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694781</v>
       </c>
       <c r="C3" t="n">
-        <v>134.9281498520198</v>
+        <v>136.1869661387071</v>
       </c>
       <c r="D3" t="n">
-        <v>185.0817284960413</v>
+        <v>183.8229122093538</v>
       </c>
       <c r="E3" t="n">
         <v>155.711808475759</v>
       </c>
       <c r="F3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>156.7421509939697</v>
+        <v>158.2044816692068</v>
       </c>
       <c r="D4" t="n">
-        <v>220.1288011045629</v>
+        <v>218.6664704293258</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022544</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="F4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.306832697356</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015059</v>
       </c>
       <c r="K4" t="n">
-        <v>156.7421509939697</v>
+        <v>158.204481669207</v>
       </c>
       <c r="L4" t="n">
-        <v>220.1288011045629</v>
+        <v>218.6664704293256</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022544</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="N4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.306832697356</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>156.7421509939697</v>
+        <v>158.2044816692068</v>
       </c>
       <c r="L4" t="n">
-        <v>220.1288011045629</v>
+        <v>218.6664704293258</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022544</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="N4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.306832697356</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>28.33556407452415</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>290.1719423057684</v>
+        <v>174.5968602363849</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>149.1202946442039</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,10 +27433,10 @@
         <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27461,10 +27461,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>149.4812888144602</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27476,7 +27476,7 @@
         <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,10 +27506,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.8544875035546</v>
@@ -27521,10 +27521,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>116.7866125839952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.8836670385466</v>
@@ -27555,10 +27555,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>118.685931474644</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888211</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>170.0097567376576</v>
       </c>
       <c r="U4" t="n">
         <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>22.80911833508486</v>
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>234.1138084779402</v>
+        <v>373.2011014364089</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>308.5866988927131</v>
       </c>
       <c r="I5" t="n">
-        <v>94.39479041254536</v>
+        <v>94.1996928652388</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>140.4071898233312</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.8930987418275</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1043690550017</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27698,22 +27698,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7324967735342</v>
+        <v>135.7297891309553</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>33.83625981104475</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,25 +27743,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.7591739534884</v>
+        <v>133.9775641515587</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>67.85594669448412</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27780,19 +27780,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6403539814364</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>150.2188850644588</v>
+        <v>150.1987027312067</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>114.7652213283029</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>116.5643630612362</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.4788812392278</v>
+        <v>200.4393213896937</v>
       </c>
       <c r="T7" t="n">
-        <v>70.80154067917343</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2452350633852</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>170.9854099418943</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27856,22 +27856,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>256.2857914321867</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>69.15627705474759</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,25 +28059,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>87.47585524077579</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>82.77095803881096</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29749,7 +29749,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29989,10 +29989,10 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E35" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203969</v>
+        <v>15.57123329495914</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203969</v>
+        <v>15.57123329495914</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203969</v>
+        <v>15.57123329495914</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203969</v>
+        <v>15.57123329495914</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203969</v>
+        <v>15.57123329495914</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203969</v>
+        <v>15.57123329495914</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203969</v>
+        <v>15.57123329495914</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203969</v>
+        <v>15.57123329495914</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203969</v>
+        <v>15.57123329495914</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203969</v>
+        <v>15.57123329495914</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203969</v>
+        <v>15.57123329495914</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203969</v>
+        <v>15.57123329495914</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203969</v>
+        <v>15.57123329495914</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203969</v>
+        <v>15.57123329495914</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203969</v>
+        <v>15.57123329495914</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203969</v>
+        <v>15.57123329495914</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203969</v>
+        <v>15.57123329495914</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203969</v>
+        <v>15.57123329495914</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203969</v>
+        <v>15.57123329495914</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203969</v>
+        <v>15.57123329495914</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203969</v>
+        <v>15.57123329495914</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203969</v>
+        <v>15.57123329495914</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203969</v>
+        <v>15.57123329495914</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203969</v>
+        <v>15.57123329495914</v>
       </c>
     </row>
     <row r="38">
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="41">
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="44">
@@ -30697,7 +30697,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -30709,7 +30709,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31045,16 +31045,16 @@
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350879</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388634</v>
+        <v>209.5161878388633</v>
       </c>
       <c r="K2" t="n">
         <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167918</v>
+        <v>389.5577350167917</v>
       </c>
       <c r="M2" t="n">
         <v>433.4580399459292</v>
@@ -31063,25 +31063,25 @@
         <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.9250721658378</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269073</v>
+        <v>354.9824263269072</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.5770185656231</v>
+        <v>266.577018565623</v>
       </c>
       <c r="R2" t="n">
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702306</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.1974850295540028</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.32079757678718</v>
+        <v>1.320797576787179</v>
       </c>
       <c r="H3" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990947</v>
       </c>
       <c r="J3" t="n">
         <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919895</v>
+        <v>213.2798437919894</v>
       </c>
       <c r="L3" t="n">
         <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043656</v>
+        <v>334.6599825043655</v>
       </c>
       <c r="N3" t="n">
-        <v>343.517436429399</v>
+        <v>343.5174364293989</v>
       </c>
       <c r="O3" t="n">
         <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480711</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736543</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163905</v>
+        <v>24.53323569163904</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944813</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.0868945774202092</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,22 +31197,22 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912174</v>
+        <v>1.107312319912173</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.845013171582787</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244975</v>
+        <v>33.29990140244974</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779067</v>
       </c>
       <c r="K4" t="n">
         <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440336</v>
+        <v>164.6271425440335</v>
       </c>
       <c r="M4" t="n">
         <v>173.576239384051</v>
@@ -31224,19 +31224,19 @@
         <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555596</v>
+        <v>133.9243918555595</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.7223070791912</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350554</v>
       </c>
       <c r="S4" t="n">
         <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.73124354871565</v>
       </c>
       <c r="U4" t="n">
         <v>0.06039885381339136</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.010987592448231</v>
+        <v>3.016048160434913</v>
       </c>
       <c r="H5" t="n">
-        <v>30.83627668116046</v>
+        <v>30.88810322305406</v>
       </c>
       <c r="I5" t="n">
-        <v>116.0810991578605</v>
+        <v>116.2761967051671</v>
       </c>
       <c r="J5" t="n">
-        <v>255.5538081745533</v>
+        <v>255.983317556713</v>
       </c>
       <c r="K5" t="n">
-        <v>383.008912962887</v>
+        <v>383.6526361879229</v>
       </c>
       <c r="L5" t="n">
-        <v>475.1564244952747</v>
+        <v>475.955020077833</v>
       </c>
       <c r="M5" t="n">
-        <v>528.7030750924758</v>
+        <v>529.5916665509674</v>
       </c>
       <c r="N5" t="n">
-        <v>537.2580435895195</v>
+        <v>538.1610133868031</v>
       </c>
       <c r="O5" t="n">
-        <v>507.3175357171123</v>
+        <v>508.1701844914784</v>
       </c>
       <c r="P5" t="n">
-        <v>432.9837795285466</v>
+        <v>433.7114955307414</v>
       </c>
       <c r="Q5" t="n">
-        <v>325.1527863739942</v>
+        <v>325.699270785166</v>
       </c>
       <c r="R5" t="n">
-        <v>189.1389493541264</v>
+        <v>189.4568352579198</v>
       </c>
       <c r="S5" t="n">
-        <v>68.61287976291413</v>
+        <v>68.72819745591066</v>
       </c>
       <c r="T5" t="n">
-        <v>13.18059818594214</v>
+        <v>13.20275082230384</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2408790073958584</v>
+        <v>0.241283852834793</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.61102038967643</v>
+        <v>1.613728032255342</v>
       </c>
       <c r="H6" t="n">
-        <v>15.55906534240131</v>
+        <v>15.58521546941344</v>
       </c>
       <c r="I6" t="n">
-        <v>55.4671493814034</v>
+        <v>55.56037304037033</v>
       </c>
       <c r="J6" t="n">
-        <v>152.2060974299122</v>
+        <v>152.4619102754927</v>
       </c>
       <c r="K6" t="n">
-        <v>260.144463538233</v>
+        <v>260.5816884366006</v>
       </c>
       <c r="L6" t="n">
-        <v>349.7963350479459</v>
+        <v>350.3842378807049</v>
       </c>
       <c r="M6" t="n">
-        <v>408.1958241737164</v>
+        <v>408.8818790499609</v>
       </c>
       <c r="N6" t="n">
-        <v>418.9995530150115</v>
+        <v>419.7037657224102</v>
       </c>
       <c r="O6" t="n">
-        <v>383.3027328016548</v>
+        <v>383.946949849805</v>
       </c>
       <c r="P6" t="n">
-        <v>307.6342356391772</v>
+        <v>308.151276615496</v>
       </c>
       <c r="Q6" t="n">
-        <v>205.6453395664159</v>
+        <v>205.9909677664889</v>
       </c>
       <c r="R6" t="n">
-        <v>100.0245817379805</v>
+        <v>100.1926930903799</v>
       </c>
       <c r="S6" t="n">
-        <v>29.92399715034946</v>
+        <v>29.97429042369021</v>
       </c>
       <c r="T6" t="n">
-        <v>6.493542711020345</v>
+        <v>6.504456410713416</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1059881835313441</v>
+        <v>0.1061663179115357</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.350625377022374</v>
+        <v>1.352895373604924</v>
       </c>
       <c r="H7" t="n">
-        <v>12.00828744298075</v>
+        <v>12.02846977623288</v>
       </c>
       <c r="I7" t="n">
-        <v>40.6169886108183</v>
+        <v>40.68525359895537</v>
       </c>
       <c r="J7" t="n">
-        <v>95.48921415548179</v>
+        <v>95.64970291386813</v>
       </c>
       <c r="K7" t="n">
-        <v>156.918111984963</v>
+        <v>157.1818443151902</v>
       </c>
       <c r="L7" t="n">
-        <v>200.8011583256718</v>
+        <v>201.1386449084994</v>
       </c>
       <c r="M7" t="n">
-        <v>211.7166670545162</v>
+        <v>212.0724993369973</v>
       </c>
       <c r="N7" t="n">
-        <v>206.6825179219784</v>
+        <v>207.0298893081064</v>
       </c>
       <c r="O7" t="n">
-        <v>190.9047578358534</v>
+        <v>191.2256115346306</v>
       </c>
       <c r="P7" t="n">
-        <v>163.3520001445968</v>
+        <v>163.62654591309</v>
       </c>
       <c r="Q7" t="n">
-        <v>113.0964577068462</v>
+        <v>113.286538966136</v>
       </c>
       <c r="R7" t="n">
-        <v>60.72902831593325</v>
+        <v>60.83109561681776</v>
       </c>
       <c r="S7" t="n">
-        <v>23.53771679774444</v>
+        <v>23.57727664727853</v>
       </c>
       <c r="T7" t="n">
-        <v>5.770853883641049</v>
+        <v>5.78055295994831</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07367047511031137</v>
+        <v>0.07379429310572322</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,34 +32066,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>229.6463482471735</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,31 +32540,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,31 +32786,31 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,34 +33020,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,31 +33260,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,10 +33494,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33509,7 +33509,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>616.9033572954396</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33968,10 +33968,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33983,10 +33983,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>616.9033572954396</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043738</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34214,25 +34214,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>240.4469701760391</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,16 +34442,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217703</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664461</v>
       </c>
       <c r="L2" t="n">
         <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186564</v>
       </c>
       <c r="N2" t="n">
         <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441511</v>
       </c>
       <c r="P2" t="n">
         <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117352</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.32166909127238</v>
+        <v>97.32166909127285</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763047</v>
+        <v>75.43840481763041</v>
       </c>
       <c r="L3" t="n">
         <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823473</v>
+        <v>192.5259485823472</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460657</v>
+        <v>212.1757243460656</v>
       </c>
       <c r="O3" t="n">
-        <v>171.6550983098281</v>
+        <v>171.655098309828</v>
       </c>
       <c r="P3" t="n">
-        <v>118.240000033741</v>
+        <v>118.2400000337409</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649636</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34872,10 +34872,10 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.2029511204531</v>
+        <v>131.202951120453</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.560263827496811</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>74.50790364786701</v>
+        <v>74.93741303002668</v>
       </c>
       <c r="K5" t="n">
-        <v>162.9190619179064</v>
+        <v>163.5627851429423</v>
       </c>
       <c r="L5" t="n">
-        <v>239.3900095252874</v>
+        <v>240.1886051078458</v>
       </c>
       <c r="M5" t="n">
-        <v>298.3568418652031</v>
+        <v>299.2454333236947</v>
       </c>
       <c r="N5" t="n">
-        <v>307.8449799929286</v>
+        <v>308.7479497902122</v>
       </c>
       <c r="O5" t="n">
-        <v>277.2193242954256</v>
+        <v>278.0719730697916</v>
       </c>
       <c r="P5" t="n">
-        <v>201.750783773277</v>
+        <v>202.4784997754719</v>
       </c>
       <c r="Q5" t="n">
-        <v>102.8470964995447</v>
+        <v>103.3935809107165</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>33.07627142708743</v>
+        <v>25.62428360882598</v>
       </c>
       <c r="K6" t="n">
-        <v>386.7682615764526</v>
+        <v>387.2054864748202</v>
       </c>
       <c r="L6" t="n">
-        <v>211.2419552680717</v>
+        <v>211.8298581008307</v>
       </c>
       <c r="M6" t="n">
-        <v>266.0617902516981</v>
+        <v>266.7478451279426</v>
       </c>
       <c r="N6" t="n">
-        <v>287.6578409316782</v>
+        <v>288.3620536390769</v>
       </c>
       <c r="O6" t="n">
-        <v>240.7064883572103</v>
+        <v>241.3507054053605</v>
       </c>
       <c r="P6" t="n">
-        <v>173.659828224847</v>
+        <v>174.1768692011657</v>
       </c>
       <c r="Q6" t="n">
-        <v>65.66356548039437</v>
+        <v>75.29427965494212</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>0.03485893773681426</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.130034038809015</v>
+        <v>2.290522797195351</v>
       </c>
       <c r="K7" t="n">
-        <v>134.6486201590801</v>
+        <v>134.9123524893074</v>
       </c>
       <c r="L7" t="n">
-        <v>228.391183585988</v>
+        <v>228.7286701688155</v>
       </c>
       <c r="M7" t="n">
-        <v>251.3005440163568</v>
+        <v>251.6563762988379</v>
       </c>
       <c r="N7" t="n">
-        <v>250.814690301207</v>
+        <v>251.162061687335</v>
       </c>
       <c r="O7" t="n">
-        <v>215.489885749893</v>
+        <v>215.8107394486703</v>
       </c>
       <c r="P7" t="n">
-        <v>160.6305594094903</v>
+        <v>160.9051051779835</v>
       </c>
       <c r="Q7" t="n">
-        <v>26.93441445515182</v>
+        <v>27.12449571444159</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>93.34947739681188</v>
       </c>
       <c r="K9" t="n">
         <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>514.7099619750462</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>91.80490927281453</v>
       </c>
       <c r="L18" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,16 +36203,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,10 +37142,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37157,7 +37157,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>485.5616452121063</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.331130754993</v>
+        <v>96.6177165579125</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>279.9038217045941</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>409.9132476140906</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>441.8436602960043</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>437.1973662848666</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>388.8331330010046</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>311.2030066015841</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>135.9734905948575</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37631,10 +37631,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>485.5616452121063</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>101.8925903961649</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38090,16 +38090,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
         <v>288.6172359016746</v>
